--- a/courses.xlsx
+++ b/courses.xlsx
@@ -497,7 +497,7 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -525,7 +525,7 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -553,7 +553,7 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -609,7 +609,7 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -665,7 +665,7 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -693,7 +693,7 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -721,7 +721,7 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -747,7 +747,9 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -767,7 +769,9 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -787,7 +791,9 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -807,7 +813,9 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -833,7 +841,7 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -861,7 +869,7 @@
       <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -883,7 +891,9 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -907,7 +917,9 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -933,7 +945,7 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -959,7 +971,9 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
     </row>
@@ -985,7 +999,7 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1011,7 +1025,9 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
     </row>
@@ -1035,7 +1051,9 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
     </row>
@@ -1061,7 +1079,7 @@
       <c r="E24" t="n">
         <v>2</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1087,7 +1105,9 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
     </row>
@@ -1111,7 +1131,9 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1137,7 +1159,7 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1163,7 +1185,9 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
     </row>
@@ -1187,7 +1211,9 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
     </row>
@@ -1211,7 +1237,9 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
     </row>
@@ -1235,7 +1263,9 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
     </row>
@@ -1259,7 +1289,9 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
     </row>
@@ -1283,8 +1315,8 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>0</v>
+      <c r="F33" t="b">
+        <v>1</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1311,8 +1343,8 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
+      <c r="F34" t="b">
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1339,7 +1371,7 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35" t="inlineStr"/>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -746,7 +746,9 @@
           <t>3, 4</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
@@ -1008,7 +1010,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Neuromorphic Engineering</t>
+          <t xml:space="preserve">The Auditory System </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1034,7 +1036,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Auditory System </t>
+          <t xml:space="preserve">Cognitive Robotics </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1043,16 +1045,18 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1060,7 +1064,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cognitive Robotics </t>
+          <t>Intro to Language and Speech Technology</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1076,11 +1080,9 @@
           <t>1, 2</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1088,7 +1090,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intro to Language and Speech Technology</t>
+          <t>Law and Technology</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1114,7 +1116,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Law and Technology</t>
+          <t>Neuromorphic Computing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1130,7 +1132,9 @@
           <t>1, 2</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
@@ -1140,7 +1144,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Neuromorphic Computing</t>
+          <t>Upgrading the Human</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1149,16 +1153,14 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="b">
         <v>0</v>
       </c>
@@ -1168,7 +1170,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Upgrading the Human</t>
+          <t>Machine Hearing</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1194,7 +1196,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Machine Hearing</t>
+          <t>(Automatic) Speech Recognition</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1203,11 +1205,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3, 4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1220,7 +1222,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>(Automatic) Speech Recognition</t>
+          <t>Neurophylosophy</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1246,7 +1248,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Neurophylosophy</t>
+          <t>Social Neurocognition</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1272,7 +1274,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Social Neurocognition</t>
+          <t>Natural Computing</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1288,9 +1290,11 @@
           <t>3, 4</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1298,7 +1302,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Natural Computing</t>
+          <t>AI Research Colloquium</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1307,16 +1311,18 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3, 4</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1324,7 +1330,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AI Research Colloquium</t>
+          <t>Bias in AI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1344,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1352,7 +1358,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bias in AI</t>
+          <t>Neuromorphic Engineering</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1365,14 +1371,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>

--- a/courses.xlsx
+++ b/courses.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -891,10 +891,16 @@
       <c r="C17" t="n">
         <v>45</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1, 2, 3</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1056,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1136,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1350,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
